--- a/data/_raw/acmap_NA_H6N2.xlsx
+++ b/data/_raw/acmap_NA_H6N2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilarius\OneDrive - Danmarks Tekniske Universitet\Dokumenter\Antigenic-Mapping-of-NA\data\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB690D1-2B32-483C-932A-815462474334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C77F111-C132-42FD-B26A-6843CE3B552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1750" yWindow="2340" windowWidth="21640" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AntigenicMappingTemplate_ATM_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Made by;                                                                OLSE &amp; MAOJ, 2024</t>
   </si>
@@ -46,27 +46,6 @@
   </si>
   <si>
     <t>Species</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">File path: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(default is desktop)</t>
-    </r>
   </si>
   <si>
     <t>Serum Comments:</t>
@@ -210,9 +189,6 @@
     <t>H6N2</t>
   </si>
   <si>
-    <t>Serum vaccine homolog:</t>
-  </si>
-  <si>
     <t>Group 2</t>
   </si>
   <si>
@@ -245,12 +221,15 @@
   <si>
     <t>Unrelated rec H6N2</t>
   </si>
+  <si>
+    <t>Serum exposure homolog:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,12 +291,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -602,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -688,25 +661,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1082,7 +1052,7 @@
   <dimension ref="A1:HW264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,23 +1072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:231" s="5" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:231" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:231" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1131,13 +1101,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1365,8 +1335,8 @@
     </row>
     <row r="4" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
-      <c r="C4" s="34">
-        <v>45371</v>
+      <c r="C4" s="33">
+        <v>45398</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="24"/>
@@ -1595,7 +1565,7 @@
       <c r="HV4" s="4"/>
       <c r="HW4" s="4"/>
     </row>
-    <row r="5" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:231" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -1603,13 +1573,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1837,9 +1807,7 @@
     </row>
     <row r="6" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="32" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -2071,7 +2039,7 @@
     </row>
     <row r="7" spans="1:231" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
@@ -2301,7 +2269,7 @@
       <c r="HV7" s="10"/>
       <c r="HW7" s="10"/>
     </row>
-    <row r="8" spans="1:231" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:231" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2310,7 +2278,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:231" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2320,81 +2288,81 @@
       <c r="D9" s="12"/>
       <c r="E9" s="4"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:231" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2403,81 +2371,81 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="Z10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="AA10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="AB10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="AC10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="AD10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="AE10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="AF10" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF10" s="35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:231" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2486,81 +2454,81 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="K11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="L11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="N11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="O11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="P11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="Q11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="R11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="S11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="T11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="U11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="V11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="W11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="X11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="Y11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="AA11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Z11" s="38" t="s">
+      <c r="AB11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" s="38" t="s">
+      <c r="AD11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AC11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD11" s="38" t="s">
+      <c r="AE11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AE11" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF11" s="38" t="s">
-        <v>35</v>
+      <c r="AF11" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2764,22 +2732,22 @@
     <row r="12" spans="1:231" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>15</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3007,20 +2975,20 @@
     <row r="13" spans="1:231" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="35" t="s">
-        <v>52</v>
+      <c r="F13" s="34" t="s">
+        <v>51</v>
       </c>
-      <c r="G13" s="44" t="s">
-        <v>56</v>
+      <c r="G13" s="43" t="s">
+        <v>54</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>64</v>
+      <c r="H13" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="I13" s="13">
         <v>648.4</v>
@@ -3296,20 +3264,20 @@
     <row r="14" spans="1:231" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="35" t="s">
-        <v>52</v>
+      <c r="F14" s="34" t="s">
+        <v>51</v>
       </c>
-      <c r="G14" s="45" t="s">
-        <v>61</v>
+      <c r="G14" s="44" t="s">
+        <v>59</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>65</v>
+      <c r="H14" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="I14" s="13">
         <v>487.4</v>
@@ -3585,18 +3553,18 @@
     <row r="15" spans="1:231" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="35" t="s">
-        <v>53</v>
+      <c r="F15" s="34" t="s">
+        <v>52</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="41" t="s">
-        <v>63</v>
+      <c r="G15" s="44"/>
+      <c r="H15" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="I15" s="13">
         <v>198.6</v>
@@ -3872,18 +3840,18 @@
     <row r="16" spans="1:231" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="35" t="s">
-        <v>54</v>
+      <c r="F16" s="34" t="s">
+        <v>53</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="41" t="s">
-        <v>66</v>
+      <c r="G16" s="44"/>
+      <c r="H16" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="I16" s="13">
         <v>45.3</v>
@@ -3936,7 +3904,7 @@
       <c r="Y16" s="13">
         <v>15.1</v>
       </c>
-      <c r="Z16" s="47"/>
+      <c r="Z16" s="46"/>
       <c r="AA16" s="13">
         <v>15.1</v>
       </c>
@@ -4157,18 +4125,18 @@
     <row r="17" spans="2:230" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="35" t="s">
-        <v>52</v>
+      <c r="F17" s="34" t="s">
+        <v>51</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="41" t="s">
-        <v>62</v>
+      <c r="G17" s="45"/>
+      <c r="H17" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="I17" s="13">
         <v>499.9</v>
@@ -4447,8 +4415,8 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="41"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -4678,8 +4646,8 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="41"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -4909,8 +4877,8 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5140,8 +5108,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5371,8 +5339,8 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5598,8 +5566,8 @@
     </row>
     <row r="23" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5825,8 +5793,8 @@
     </row>
     <row r="24" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="42"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -6052,8 +6020,8 @@
     </row>
     <row r="25" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="42"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -6279,8 +6247,8 @@
     </row>
     <row r="26" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -6506,8 +6474,8 @@
     </row>
     <row r="27" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -6733,8 +6701,8 @@
     </row>
     <row r="28" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="42"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -6960,8 +6928,8 @@
     </row>
     <row r="29" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="42"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -7187,8 +7155,8 @@
     </row>
     <row r="30" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -7414,8 +7382,8 @@
     </row>
     <row r="31" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -7641,8 +7609,8 @@
     </row>
     <row r="32" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="42"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -7868,8 +7836,8 @@
     </row>
     <row r="33" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="42"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -8095,8 +8063,8 @@
     </row>
     <row r="34" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -8322,8 +8290,8 @@
     </row>
     <row r="35" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="42"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -8549,8 +8517,8 @@
     </row>
     <row r="36" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -8776,8 +8744,8 @@
     </row>
     <row r="37" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -9003,8 +8971,8 @@
     </row>
     <row r="38" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="42"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -9230,8 +9198,8 @@
     </row>
     <row r="39" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="42"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -9457,8 +9425,8 @@
     </row>
     <row r="40" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="42"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -9684,8 +9652,8 @@
     </row>
     <row r="41" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="42"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -9911,8 +9879,8 @@
     </row>
     <row r="42" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="42"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -10138,8 +10106,8 @@
     </row>
     <row r="43" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="42"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -10365,8 +10333,8 @@
     </row>
     <row r="44" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -10592,8 +10560,8 @@
     </row>
     <row r="45" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="42"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="41"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -10819,8 +10787,8 @@
     </row>
     <row r="46" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="42"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -11046,8 +11014,8 @@
     </row>
     <row r="47" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="42"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -11273,8 +11241,8 @@
     </row>
     <row r="48" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="42"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -11500,8 +11468,8 @@
     </row>
     <row r="49" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="42"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="41"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -11727,8 +11695,8 @@
     </row>
     <row r="50" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="42"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -11954,8 +11922,8 @@
     </row>
     <row r="51" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="42"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -12181,8 +12149,8 @@
     </row>
     <row r="52" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="42"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -12408,8 +12376,8 @@
     </row>
     <row r="53" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="42"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="41"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -12635,8 +12603,8 @@
     </row>
     <row r="54" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="42"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -12862,8 +12830,8 @@
     </row>
     <row r="55" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="42"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -13089,8 +13057,8 @@
     </row>
     <row r="56" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="42"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -13316,8 +13284,8 @@
     </row>
     <row r="57" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="42"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="41"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -13543,8 +13511,8 @@
     </row>
     <row r="58" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="42"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="41"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -13770,8 +13738,8 @@
     </row>
     <row r="59" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="42"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -13997,8 +13965,8 @@
     </row>
     <row r="60" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="42"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -14224,8 +14192,8 @@
     </row>
     <row r="61" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="42"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -14451,8 +14419,8 @@
     </row>
     <row r="62" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="42"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="41"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -14678,8 +14646,8 @@
     </row>
     <row r="63" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="42"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="41"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -14905,8 +14873,8 @@
     </row>
     <row r="64" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="42"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="41"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -15132,8 +15100,8 @@
     </row>
     <row r="65" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="42"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="41"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -15359,8 +15327,8 @@
     </row>
     <row r="66" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="42"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -15586,8 +15554,8 @@
     </row>
     <row r="67" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="42"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="41"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -15813,8 +15781,8 @@
     </row>
     <row r="68" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="42"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="41"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -16040,8 +16008,8 @@
     </row>
     <row r="69" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="42"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -16267,8 +16235,8 @@
     </row>
     <row r="70" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="42"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="41"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -16494,8 +16462,8 @@
     </row>
     <row r="71" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="42"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="41"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -16721,8 +16689,8 @@
     </row>
     <row r="72" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="42"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="41"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -16948,8 +16916,8 @@
     </row>
     <row r="73" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="42"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="41"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -17175,8 +17143,8 @@
     </row>
     <row r="74" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="42"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="41"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -17402,8 +17370,8 @@
     </row>
     <row r="75" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="42"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="41"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -17629,8 +17597,8 @@
     </row>
     <row r="76" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="42"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="41"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -17856,8 +17824,8 @@
     </row>
     <row r="77" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="42"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="41"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -18083,8 +18051,8 @@
     </row>
     <row r="78" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="42"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="41"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -18310,8 +18278,8 @@
     </row>
     <row r="79" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B79" s="11"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="42"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="41"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -18537,8 +18505,8 @@
     </row>
     <row r="80" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="42"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="41"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -18764,8 +18732,8 @@
     </row>
     <row r="81" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B81" s="11"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="42"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="41"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -18991,8 +18959,8 @@
     </row>
     <row r="82" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="42"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="41"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -19218,8 +19186,8 @@
     </row>
     <row r="83" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="42"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="41"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -19445,8 +19413,8 @@
     </row>
     <row r="84" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="42"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="41"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -19672,8 +19640,8 @@
     </row>
     <row r="85" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="42"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="41"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -19899,8 +19867,8 @@
     </row>
     <row r="86" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="42"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="41"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -20126,8 +20094,8 @@
     </row>
     <row r="87" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="42"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="41"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -20353,8 +20321,8 @@
     </row>
     <row r="88" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="42"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="41"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -20580,8 +20548,8 @@
     </row>
     <row r="89" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="42"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="41"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -20807,8 +20775,8 @@
     </row>
     <row r="90" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="42"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="41"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -21034,8 +21002,8 @@
     </row>
     <row r="91" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B91" s="11"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="42"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="41"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -21261,8 +21229,8 @@
     </row>
     <row r="92" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B92" s="11"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="42"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="41"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -21488,8 +21456,8 @@
     </row>
     <row r="93" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B93" s="11"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="42"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="41"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -21715,8 +21683,8 @@
     </row>
     <row r="94" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B94" s="11"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="42"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="41"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -21942,8 +21910,8 @@
     </row>
     <row r="95" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B95" s="11"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="42"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="41"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -22169,8 +22137,8 @@
     </row>
     <row r="96" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="42"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="41"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
@@ -22396,8 +22364,8 @@
     </row>
     <row r="97" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B97" s="11"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="42"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="41"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -22623,8 +22591,8 @@
     </row>
     <row r="98" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B98" s="11"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="42"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="41"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
@@ -22850,8 +22818,8 @@
     </row>
     <row r="99" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B99" s="11"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="42"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="41"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -23077,8 +23045,8 @@
     </row>
     <row r="100" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B100" s="11"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="42"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="41"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
@@ -23304,8 +23272,8 @@
     </row>
     <row r="101" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="42"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="41"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -23531,8 +23499,8 @@
     </row>
     <row r="102" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B102" s="11"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="42"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="41"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -23758,8 +23726,8 @@
     </row>
     <row r="103" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B103" s="11"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="42"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="41"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -23985,8 +23953,8 @@
     </row>
     <row r="104" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B104" s="11"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="42"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="41"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
@@ -24212,8 +24180,8 @@
     </row>
     <row r="105" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B105" s="11"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="42"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="41"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -24439,8 +24407,8 @@
     </row>
     <row r="106" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B106" s="11"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="42"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="41"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
@@ -24666,8 +24634,8 @@
     </row>
     <row r="107" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B107" s="11"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="42"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="41"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -24893,8 +24861,8 @@
     </row>
     <row r="108" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B108" s="11"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="42"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="41"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
@@ -25120,8 +25088,8 @@
     </row>
     <row r="109" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B109" s="11"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="42"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="41"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -25347,8 +25315,8 @@
     </row>
     <row r="110" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B110" s="11"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="42"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="41"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
@@ -25574,8 +25542,8 @@
     </row>
     <row r="111" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B111" s="11"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="42"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="41"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -25801,8 +25769,8 @@
     </row>
     <row r="112" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="42"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="41"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -26028,8 +25996,8 @@
     </row>
     <row r="113" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B113" s="11"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="42"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="41"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -26255,8 +26223,8 @@
     </row>
     <row r="114" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B114" s="11"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="42"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="41"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
@@ -26482,8 +26450,8 @@
     </row>
     <row r="115" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B115" s="11"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="42"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="41"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -26709,8 +26677,8 @@
     </row>
     <row r="116" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B116" s="11"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="42"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="41"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
@@ -26936,8 +26904,8 @@
     </row>
     <row r="117" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B117" s="11"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="42"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="41"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -27163,8 +27131,8 @@
     </row>
     <row r="118" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B118" s="11"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="42"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="41"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
@@ -27390,8 +27358,8 @@
     </row>
     <row r="119" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B119" s="11"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="42"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="41"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -27617,8 +27585,8 @@
     </row>
     <row r="120" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B120" s="11"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="42"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="41"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
@@ -27844,8 +27812,8 @@
     </row>
     <row r="121" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B121" s="11"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="42"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="41"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -28071,8 +28039,8 @@
     </row>
     <row r="122" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B122" s="11"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="42"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="41"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
@@ -28298,8 +28266,8 @@
     </row>
     <row r="123" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B123" s="11"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="42"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="41"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -28525,8 +28493,8 @@
     </row>
     <row r="124" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B124" s="11"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="42"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="41"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
@@ -28752,8 +28720,8 @@
     </row>
     <row r="125" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B125" s="11"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="42"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="41"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -28979,8 +28947,8 @@
     </row>
     <row r="126" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B126" s="11"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="42"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="41"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
@@ -29206,8 +29174,8 @@
     </row>
     <row r="127" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B127" s="11"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="42"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="41"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -29433,8 +29401,8 @@
     </row>
     <row r="128" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B128" s="11"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="42"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="41"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
@@ -29660,8 +29628,8 @@
     </row>
     <row r="129" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B129" s="11"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="42"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="41"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -29887,8 +29855,8 @@
     </row>
     <row r="130" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B130" s="11"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="42"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="41"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
@@ -30114,8 +30082,8 @@
     </row>
     <row r="131" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B131" s="11"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="42"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="41"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -30341,8 +30309,8 @@
     </row>
     <row r="132" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B132" s="11"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="42"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="41"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
@@ -30568,8 +30536,8 @@
     </row>
     <row r="133" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B133" s="11"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="42"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="41"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -30795,8 +30763,8 @@
     </row>
     <row r="134" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B134" s="11"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="42"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="41"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
@@ -31022,8 +30990,8 @@
     </row>
     <row r="135" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B135" s="11"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="42"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="41"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -31249,8 +31217,8 @@
     </row>
     <row r="136" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B136" s="11"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="42"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="41"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
@@ -31476,8 +31444,8 @@
     </row>
     <row r="137" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B137" s="11"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="42"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="41"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -31703,8 +31671,8 @@
     </row>
     <row r="138" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B138" s="11"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="42"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="41"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
@@ -31930,8 +31898,8 @@
     </row>
     <row r="139" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B139" s="11"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="42"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="41"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -32157,8 +32125,8 @@
     </row>
     <row r="140" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B140" s="11"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="42"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="41"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
@@ -32384,8 +32352,8 @@
     </row>
     <row r="141" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B141" s="11"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="42"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="41"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -32611,8 +32579,8 @@
     </row>
     <row r="142" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B142" s="11"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="42"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="41"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -32838,8 +32806,8 @@
     </row>
     <row r="143" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B143" s="11"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="42"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="41"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -33065,8 +33033,8 @@
     </row>
     <row r="144" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B144" s="11"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="42"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="41"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
@@ -33292,8 +33260,8 @@
     </row>
     <row r="145" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B145" s="11"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="42"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="41"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -33519,8 +33487,8 @@
     </row>
     <row r="146" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B146" s="11"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="42"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="41"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
@@ -33746,8 +33714,8 @@
     </row>
     <row r="147" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B147" s="11"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="42"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="41"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -33973,8 +33941,8 @@
     </row>
     <row r="148" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B148" s="11"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="42"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="41"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
@@ -34200,8 +34168,8 @@
     </row>
     <row r="149" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B149" s="11"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="42"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="41"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -34427,8 +34395,8 @@
     </row>
     <row r="150" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B150" s="11"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="42"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="41"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
@@ -34654,8 +34622,8 @@
     </row>
     <row r="151" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B151" s="11"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="42"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="41"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -34881,8 +34849,8 @@
     </row>
     <row r="152" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B152" s="11"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="42"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="41"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
@@ -35108,8 +35076,8 @@
     </row>
     <row r="153" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B153" s="11"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="42"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="41"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
@@ -35335,8 +35303,8 @@
     </row>
     <row r="154" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B154" s="11"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="42"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="41"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
@@ -35562,8 +35530,8 @@
     </row>
     <row r="155" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B155" s="11"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="42"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="41"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -35789,8 +35757,8 @@
     </row>
     <row r="156" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B156" s="11"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="42"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="41"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -36016,8 +35984,8 @@
     </row>
     <row r="157" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B157" s="11"/>
-      <c r="G157" s="45"/>
-      <c r="H157" s="42"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="41"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -36243,8 +36211,8 @@
     </row>
     <row r="158" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B158" s="11"/>
-      <c r="G158" s="45"/>
-      <c r="H158" s="42"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="41"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -36470,8 +36438,8 @@
     </row>
     <row r="159" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B159" s="11"/>
-      <c r="G159" s="45"/>
-      <c r="H159" s="42"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="41"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -36697,8 +36665,8 @@
     </row>
     <row r="160" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B160" s="11"/>
-      <c r="G160" s="45"/>
-      <c r="H160" s="42"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="41"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
@@ -36924,8 +36892,8 @@
     </row>
     <row r="161" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B161" s="11"/>
-      <c r="G161" s="45"/>
-      <c r="H161" s="42"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="41"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -37151,8 +37119,8 @@
     </row>
     <row r="162" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B162" s="11"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="42"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="41"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -37378,8 +37346,8 @@
     </row>
     <row r="163" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B163" s="11"/>
-      <c r="G163" s="45"/>
-      <c r="H163" s="42"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="41"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -37605,8 +37573,8 @@
     </row>
     <row r="164" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B164" s="11"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="42"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="41"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -37832,8 +37800,8 @@
     </row>
     <row r="165" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B165" s="11"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="42"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="41"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -38059,8 +38027,8 @@
     </row>
     <row r="166" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B166" s="11"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="42"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="41"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
@@ -38286,8 +38254,8 @@
     </row>
     <row r="167" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B167" s="11"/>
-      <c r="G167" s="45"/>
-      <c r="H167" s="42"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="41"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -38513,8 +38481,8 @@
     </row>
     <row r="168" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B168" s="11"/>
-      <c r="G168" s="45"/>
-      <c r="H168" s="42"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="41"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
@@ -38740,8 +38708,8 @@
     </row>
     <row r="169" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B169" s="11"/>
-      <c r="G169" s="45"/>
-      <c r="H169" s="42"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="41"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -38967,8 +38935,8 @@
     </row>
     <row r="170" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B170" s="11"/>
-      <c r="G170" s="45"/>
-      <c r="H170" s="42"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="41"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
@@ -39194,8 +39162,8 @@
     </row>
     <row r="171" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B171" s="11"/>
-      <c r="G171" s="45"/>
-      <c r="H171" s="42"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="41"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -39421,8 +39389,8 @@
     </row>
     <row r="172" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B172" s="11"/>
-      <c r="G172" s="45"/>
-      <c r="H172" s="42"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="41"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
@@ -39648,8 +39616,8 @@
     </row>
     <row r="173" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B173" s="11"/>
-      <c r="G173" s="45"/>
-      <c r="H173" s="42"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="41"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
@@ -39875,8 +39843,8 @@
     </row>
     <row r="174" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B174" s="11"/>
-      <c r="G174" s="45"/>
-      <c r="H174" s="42"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="41"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
@@ -40102,8 +40070,8 @@
     </row>
     <row r="175" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B175" s="11"/>
-      <c r="G175" s="45"/>
-      <c r="H175" s="42"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="41"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
@@ -40329,8 +40297,8 @@
     </row>
     <row r="176" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B176" s="11"/>
-      <c r="G176" s="45"/>
-      <c r="H176" s="42"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="41"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
@@ -40556,8 +40524,8 @@
     </row>
     <row r="177" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B177" s="11"/>
-      <c r="G177" s="45"/>
-      <c r="H177" s="42"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="41"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
@@ -40783,8 +40751,8 @@
     </row>
     <row r="178" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B178" s="11"/>
-      <c r="G178" s="45"/>
-      <c r="H178" s="42"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="41"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
@@ -41010,8 +40978,8 @@
     </row>
     <row r="179" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B179" s="11"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="42"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="41"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -41237,8 +41205,8 @@
     </row>
     <row r="180" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B180" s="11"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="42"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="41"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
@@ -41464,8 +41432,8 @@
     </row>
     <row r="181" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B181" s="11"/>
-      <c r="G181" s="45"/>
-      <c r="H181" s="42"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="41"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -41691,8 +41659,8 @@
     </row>
     <row r="182" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B182" s="11"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="42"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="41"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
@@ -41918,8 +41886,8 @@
     </row>
     <row r="183" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B183" s="11"/>
-      <c r="G183" s="45"/>
-      <c r="H183" s="42"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="41"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -42145,8 +42113,8 @@
     </row>
     <row r="184" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B184" s="11"/>
-      <c r="G184" s="45"/>
-      <c r="H184" s="42"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="41"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
@@ -42372,8 +42340,8 @@
     </row>
     <row r="185" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B185" s="11"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="42"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="41"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -42599,8 +42567,8 @@
     </row>
     <row r="186" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B186" s="11"/>
-      <c r="G186" s="45"/>
-      <c r="H186" s="42"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="41"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
@@ -42826,8 +42794,8 @@
     </row>
     <row r="187" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B187" s="11"/>
-      <c r="G187" s="45"/>
-      <c r="H187" s="42"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="41"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -43053,8 +43021,8 @@
     </row>
     <row r="188" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B188" s="11"/>
-      <c r="G188" s="45"/>
-      <c r="H188" s="42"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="41"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
@@ -43280,8 +43248,8 @@
     </row>
     <row r="189" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B189" s="11"/>
-      <c r="G189" s="45"/>
-      <c r="H189" s="42"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="41"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -43507,8 +43475,8 @@
     </row>
     <row r="190" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B190" s="11"/>
-      <c r="G190" s="45"/>
-      <c r="H190" s="42"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="41"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
@@ -43734,8 +43702,8 @@
     </row>
     <row r="191" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B191" s="11"/>
-      <c r="G191" s="45"/>
-      <c r="H191" s="42"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="41"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -43961,8 +43929,8 @@
     </row>
     <row r="192" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B192" s="11"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="42"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="41"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
@@ -44188,8 +44156,8 @@
     </row>
     <row r="193" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B193" s="11"/>
-      <c r="G193" s="45"/>
-      <c r="H193" s="42"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="41"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
@@ -44415,8 +44383,8 @@
     </row>
     <row r="194" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B194" s="11"/>
-      <c r="G194" s="45"/>
-      <c r="H194" s="42"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="41"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
@@ -44642,8 +44610,8 @@
     </row>
     <row r="195" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B195" s="11"/>
-      <c r="G195" s="45"/>
-      <c r="H195" s="42"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="41"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
@@ -44869,8 +44837,8 @@
     </row>
     <row r="196" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B196" s="11"/>
-      <c r="G196" s="45"/>
-      <c r="H196" s="42"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="41"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
@@ -45096,8 +45064,8 @@
     </row>
     <row r="197" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B197" s="11"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="42"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="41"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
@@ -45323,8 +45291,8 @@
     </row>
     <row r="198" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B198" s="11"/>
-      <c r="G198" s="45"/>
-      <c r="H198" s="42"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="41"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
@@ -45550,8 +45518,8 @@
     </row>
     <row r="199" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B199" s="11"/>
-      <c r="G199" s="45"/>
-      <c r="H199" s="42"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="41"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
@@ -45777,8 +45745,8 @@
     </row>
     <row r="200" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B200" s="11"/>
-      <c r="G200" s="45"/>
-      <c r="H200" s="42"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="41"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
@@ -46004,8 +45972,8 @@
     </row>
     <row r="201" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B201" s="11"/>
-      <c r="G201" s="45"/>
-      <c r="H201" s="42"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="41"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
@@ -46231,8 +46199,8 @@
     </row>
     <row r="202" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B202" s="11"/>
-      <c r="G202" s="45"/>
-      <c r="H202" s="42"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="41"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
@@ -46458,8 +46426,8 @@
     </row>
     <row r="203" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B203" s="11"/>
-      <c r="G203" s="45"/>
-      <c r="H203" s="42"/>
+      <c r="G203" s="44"/>
+      <c r="H203" s="41"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
@@ -46685,8 +46653,8 @@
     </row>
     <row r="204" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B204" s="11"/>
-      <c r="G204" s="45"/>
-      <c r="H204" s="42"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="41"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
@@ -46912,8 +46880,8 @@
     </row>
     <row r="205" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B205" s="11"/>
-      <c r="G205" s="45"/>
-      <c r="H205" s="42"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="41"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
@@ -47139,8 +47107,8 @@
     </row>
     <row r="206" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B206" s="11"/>
-      <c r="G206" s="45"/>
-      <c r="H206" s="42"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="41"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
@@ -47366,8 +47334,8 @@
     </row>
     <row r="207" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B207" s="11"/>
-      <c r="G207" s="45"/>
-      <c r="H207" s="42"/>
+      <c r="G207" s="44"/>
+      <c r="H207" s="41"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
@@ -47593,8 +47561,8 @@
     </row>
     <row r="208" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B208" s="11"/>
-      <c r="G208" s="45"/>
-      <c r="H208" s="42"/>
+      <c r="G208" s="44"/>
+      <c r="H208" s="41"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
@@ -47820,8 +47788,8 @@
     </row>
     <row r="209" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B209" s="11"/>
-      <c r="G209" s="45"/>
-      <c r="H209" s="42"/>
+      <c r="G209" s="44"/>
+      <c r="H209" s="41"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
@@ -48047,8 +48015,8 @@
     </row>
     <row r="210" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B210" s="11"/>
-      <c r="G210" s="45"/>
-      <c r="H210" s="42"/>
+      <c r="G210" s="44"/>
+      <c r="H210" s="41"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
@@ -48274,8 +48242,8 @@
     </row>
     <row r="211" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B211" s="11"/>
-      <c r="G211" s="45"/>
-      <c r="H211" s="42"/>
+      <c r="G211" s="44"/>
+      <c r="H211" s="41"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
@@ -48501,8 +48469,8 @@
     </row>
     <row r="212" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B212" s="11"/>
-      <c r="G212" s="45"/>
-      <c r="H212" s="42"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="41"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
@@ -48728,8 +48696,8 @@
     </row>
     <row r="213" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B213" s="11"/>
-      <c r="G213" s="45"/>
-      <c r="H213" s="42"/>
+      <c r="G213" s="44"/>
+      <c r="H213" s="41"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
@@ -48955,8 +48923,8 @@
     </row>
     <row r="214" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B214" s="11"/>
-      <c r="G214" s="45"/>
-      <c r="H214" s="42"/>
+      <c r="G214" s="44"/>
+      <c r="H214" s="41"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
@@ -49182,8 +49150,8 @@
     </row>
     <row r="215" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B215" s="11"/>
-      <c r="G215" s="45"/>
-      <c r="H215" s="42"/>
+      <c r="G215" s="44"/>
+      <c r="H215" s="41"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
@@ -49409,8 +49377,8 @@
     </row>
     <row r="216" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B216" s="11"/>
-      <c r="G216" s="45"/>
-      <c r="H216" s="42"/>
+      <c r="G216" s="44"/>
+      <c r="H216" s="41"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
@@ -49636,8 +49604,8 @@
     </row>
     <row r="217" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B217" s="11"/>
-      <c r="G217" s="45"/>
-      <c r="H217" s="42"/>
+      <c r="G217" s="44"/>
+      <c r="H217" s="41"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
@@ -49863,8 +49831,8 @@
     </row>
     <row r="218" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B218" s="11"/>
-      <c r="G218" s="45"/>
-      <c r="H218" s="42"/>
+      <c r="G218" s="44"/>
+      <c r="H218" s="41"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
@@ -50090,8 +50058,8 @@
     </row>
     <row r="219" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B219" s="11"/>
-      <c r="G219" s="45"/>
-      <c r="H219" s="42"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="41"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
@@ -50317,8 +50285,8 @@
     </row>
     <row r="220" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B220" s="11"/>
-      <c r="G220" s="45"/>
-      <c r="H220" s="42"/>
+      <c r="G220" s="44"/>
+      <c r="H220" s="41"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
@@ -50544,8 +50512,8 @@
     </row>
     <row r="221" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B221" s="11"/>
-      <c r="G221" s="45"/>
-      <c r="H221" s="42"/>
+      <c r="G221" s="44"/>
+      <c r="H221" s="41"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
@@ -50927,13 +50895,12 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations xWindow="1215" yWindow="793" count="16">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations xWindow="1215" yWindow="793" count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Virus type" prompt="Write here the type (or family) of virus (e.g. influenza A)._x000a_Can NOT be left empty. " sqref="F3" xr:uid="{CE240BE2-C628-4B8A-B6B5-DB77BFD995D9}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Version control of template" prompt="In case the template is updated, please change the date here. " sqref="C4" xr:uid="{DE7B4072-35BB-4EA0-9620-D7950894DA02}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Version control of template" prompt="In case the template is updated, please change the date here. " sqref="C4" xr:uid="{F8E104C6-25EF-470E-8823-36DA6596FC05}">
       <formula1>45363</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Insert file path here" prompt="Copy file path from &quot;File Explorer&quot; and paste it here. This is where the plots, report and Racmacs interface. " sqref="C7" xr:uid="{27B9733A-C5B7-4500-B65E-95C3FA937881}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="(optional) Insert strain origin" prompt="In the format of: _x000a_&lt;virus type and subtype/origin/strain number/year isolated&gt; _x000a_An example could be; &lt;seasonal influenza A(H3N2)/Perth/16/2019&gt;" sqref="D13:D221" xr:uid="{07E23837-5D22-427F-B224-D5B1FA90F7C0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="(optional) Insert SSI name" prompt="Insert the name the antigen is known as within the SSI system. " sqref="E13:E221" xr:uid="{0DA7DC1C-F230-4A91-9D52-E83BB5DE063D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Insert antigenic group" prompt="IMPORTANT: If an antigen in use corresponds to the antigen in &quot;Serum exposure&quot;, proceed to write it here identically to &quot;Serum exposure:&quot;_x000a_Beyond that, the idea is to write e.g. &quot;Delta&quot; at each instance of Delta variant in a COVID dataset. " sqref="F13:F221" xr:uid="{194C4819-7700-47AB-A9FA-060C5A8AC6F1}"/>
@@ -50955,12 +50922,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51108,15 +51072,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51140,17 +51115,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>